--- a/deployment/Omaha_Cal_Info_GI05MOAS-GL495_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GI05MOAS-GL495_00001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\GI05MOAS-GL495\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11508" yWindow="1728" windowWidth="25260" windowHeight="11088" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="11505" yWindow="1725" windowWidth="25260" windowHeight="11085" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>Ref Des</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>N00540</t>
+  </si>
+  <si>
+    <t>OL000121</t>
   </si>
 </sst>
 </file>
@@ -846,17 +849,17 @@
       <selection activeCell="B1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="9" width="20.6640625" customWidth="1"/>
-    <col min="10" max="11" width="15.88671875" customWidth="1"/>
+    <col min="2" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="11" width="15.85546875" customWidth="1"/>
     <col min="12" max="12" width="34" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" customWidth="1"/>
-    <col min="14" max="14" width="20.88671875" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>30</v>
       </c>
@@ -894,7 +897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -952,22 +955,22 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="29.44140625" customWidth="1"/>
-    <col min="8" max="8" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -993,7 +996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
@@ -1022,7 +1025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1051,7 +1054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -1080,7 +1083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -1109,7 +1112,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="17"/>
@@ -1125,7 +1128,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
@@ -1155,7 +1158,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="17"/>
@@ -1171,7 +1174,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -1201,7 +1204,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
@@ -1217,7 +1220,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
@@ -1232,7 +1235,9 @@
         <f t="shared" ref="D11" si="1">$D$2</f>
         <v>1</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
       <c r="F11" s="13">
         <v>495</v>
       </c>
@@ -1247,7 +1252,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>

--- a/deployment/Omaha_Cal_Info_GI05MOAS-GL495_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GI05MOAS-GL495_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11505" yWindow="1725" windowWidth="25260" windowHeight="11085" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="11500" yWindow="1720" windowWidth="25260" windowHeight="11080" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$82</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$379</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -599,7 +594,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -634,7 +629,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -849,17 +844,17 @@
       <selection activeCell="B1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="11" width="15.85546875" customWidth="1"/>
+    <col min="2" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="11" width="15.83203125" customWidth="1"/>
     <col min="12" max="12" width="34" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.5" customWidth="1"/>
+    <col min="14" max="14" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28">
       <c r="A1" s="24" t="s">
         <v>30</v>
       </c>
@@ -897,7 +892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -955,22 +950,22 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -996,7 +991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="1" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
@@ -1025,7 +1020,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1054,7 +1049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -1077,13 +1072,13 @@
         <v>19</v>
       </c>
       <c r="H4" s="22">
-        <v>1.1299999999999999</v>
+        <v>1.0960000000000001</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="1" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -1112,7 +1107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="1" customFormat="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="17"/>
@@ -1128,7 +1123,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="1" customFormat="1">
       <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
@@ -1158,7 +1153,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="1" customFormat="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="17"/>
@@ -1174,7 +1169,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="1" customFormat="1">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -1204,7 +1199,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="1" customFormat="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
@@ -1220,7 +1215,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="1" customFormat="1">
       <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
@@ -1252,7 +1247,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="1" customFormat="1">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>

--- a/deployment/Omaha_Cal_Info_GI05MOAS-GL495_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GI05MOAS-GL495_00001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11500" yWindow="1720" windowWidth="25260" windowHeight="11080" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="11500" yWindow="1720" windowWidth="25260" windowHeight="11080" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>Ref Des</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>OL000121</t>
+  </si>
+  <si>
+    <t>glider lost</t>
   </si>
 </sst>
 </file>
@@ -840,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -911,7 +914,9 @@
       <c r="F2" s="7">
         <v>0.58472222222222225</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="6">
+        <v>42313</v>
+      </c>
       <c r="H2" s="20" t="s">
         <v>22</v>
       </c>
@@ -924,7 +929,9 @@
       <c r="K2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="M2" s="19">
         <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
         <v>59.861083333333333</v>
@@ -949,7 +956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
